--- a/trajectory annotation/example output/annotations.xlsx
+++ b/trajectory annotation/example output/annotations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,27 +482,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="D2" t="n">
-        <v>370</v>
+        <v>197</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>rear</t>
+          <t>center</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.831511651494905</v>
+        <v>-6.00709827793899</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2552680397679422</v>
+        <v>1.905777571230516</v>
       </c>
     </row>
     <row r="3">
@@ -512,27 +512,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D3" t="n">
-        <v>354</v>
+        <v>258</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>center</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.846171181811744</v>
+        <v>-0.4987455247273155</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2121990261466513</v>
+        <v>0.5602889902536539</v>
       </c>
     </row>
     <row r="4">
@@ -542,27 +542,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D4" t="n">
-        <v>329</v>
+        <v>177</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>rear</t>
+          <t>center</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.54051158427708</v>
+        <v>-8.619385828559887</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.7939822818744382</v>
+        <v>1.339143467439441</v>
       </c>
     </row>
     <row r="5">
@@ -572,27 +572,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="D5" t="n">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>front</t>
+          <t>center</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.8150963954378719</v>
+        <v>-3.592576439832007</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.553528644136503</v>
+        <v>-0.5175829521680033</v>
       </c>
     </row>
     <row r="6">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="D6" t="n">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -619,10 +619,340 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.4048682273175665</v>
+        <v>-10.7091610673475</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.090743466924196</v>
+        <v>1.743682909219283</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bicycle</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>203</v>
+      </c>
+      <c r="D7" t="n">
+        <v>191</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>-6.230408446322233</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1.145214223445308</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bicycle</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>115</v>
+      </c>
+      <c r="D8" t="n">
+        <v>235</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>-2.438753121000178</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.696663637693239</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bicycle</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>145</v>
+      </c>
+      <c r="D9" t="n">
+        <v>152</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>-13.46280750509256</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.315277120673031</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bicycle</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>203</v>
+      </c>
+      <c r="D10" t="n">
+        <v>180</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>-7.7079363916576</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1.249578551877403</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bicycle</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>120</v>
+      </c>
+      <c r="D11" t="n">
+        <v>190</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>-7.088380898187506</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.131013001631934</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bicycle</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>137</v>
+      </c>
+      <c r="D12" t="n">
+        <v>166</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>-10.68708509102349</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.59389766691687</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Bicycle</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>185</v>
+      </c>
+      <c r="D13" t="n">
+        <v>171</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>-9.279740441052136</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.3089452409663614</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Bicycle</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>171</v>
+      </c>
+      <c r="D14" t="n">
+        <v>163</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>-10.84799591574304</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5197007682988232</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bicycle</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>143</v>
+      </c>
+      <c r="D15" t="n">
+        <v>149</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>-14.19610453188556</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.509114177769655</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bicycle</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>152</v>
+      </c>
+      <c r="D16" t="n">
+        <v>159</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>-11.86114374983187</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.748701661809111</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bicycle</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>144</v>
+      </c>
+      <c r="D17" t="n">
+        <v>146</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-14.92406124150049</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.495810743190491</v>
       </c>
     </row>
   </sheetData>
